--- a/UrbanEco/Excel/RapportProjet.xlsx
+++ b/UrbanEco/Excel/RapportProjet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1 - Prog 2018\Projet\CodeBreaker\GITPROJECT\UrbanEco\UrbanEco\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B74087DD-C77D-4846-AEB2-51D11A9F3CFA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E61A9E6-C27C-4446-A9C7-1711383F58DF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{1F6980FE-A122-4706-AC29-BFCF95A99287}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{986A0A0D-AE78-4309-B56C-572321196D07}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="24">
   <si>
     <t>Administration</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Stéphane Guignard</t>
+  </si>
+  <si>
+    <t>Caroline Nadeau</t>
   </si>
   <si>
     <t>Pascale Malenfant-Gamache</t>
@@ -450,8 +453,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A29AE9-AAA9-4F77-AC48-5591952F6D9A}">
-  <dimension ref="A3:D52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6E9B32-DDAB-4CAB-A0EB-0B12E9CDF183}">
+  <dimension ref="A3:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>2912</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -482,7 +485,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -496,7 +499,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -510,7 +513,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -524,7 +527,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>338</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -538,7 +541,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>748</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -552,7 +555,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>91</v>
+        <v>978</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -566,7 +569,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -580,7 +583,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>1108</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -594,7 +597,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>776</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -608,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>216</v>
+        <v>776</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -622,7 +625,7 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>109</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -636,7 +639,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>72</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -650,7 +653,7 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -664,35 +667,35 @@
         <v>16</v>
       </c>
       <c r="D17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
         <v>2</v>
       </c>
-      <c r="D19">
-        <v>4147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>137</v>
+      <c r="D20">
+        <v>4647</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -700,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>87</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,13 +717,13 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -728,13 +731,13 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
         <v>18</v>
-      </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24">
-        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,13 +745,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>248</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -756,13 +759,13 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>95</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -770,13 +773,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -784,13 +787,13 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>17</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -798,13 +801,27 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
         <v>15</v>
       </c>
-      <c r="D29">
-        <v>4</v>
+      <c r="D30">
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -815,24 +832,10 @@
         <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D31">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" t="s">
         <v>4</v>
-      </c>
-      <c r="D32">
-        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -840,13 +843,13 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>108</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -854,13 +857,13 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D34">
-        <v>97</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -868,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>48</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -882,13 +885,13 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D36">
-        <v>18</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -896,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D37">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -910,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D38">
-        <v>188</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -924,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D39">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -938,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D40">
-        <v>108</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -952,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D41">
-        <v>9</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -966,13 +969,13 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D42">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -980,13 +983,27 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D43">
-        <v>19</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44">
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -997,10 +1014,10 @@
         <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D45">
-        <v>383</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1011,10 +1028,10 @@
         <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1025,24 +1042,24 @@
         <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49">
         <v>10</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1053,23 +1070,51 @@
         <v>22</v>
       </c>
       <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" t="s">
         <v>11</v>
       </c>
-      <c r="D51">
+      <c r="D53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55">
         <v>6</v>
       </c>
     </row>

--- a/UrbanEco/Excel/RapportProjet.xlsx
+++ b/UrbanEco/Excel/RapportProjet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1 - Prog 2018\Projet\CodeBreaker\GITPROJECT\UrbanEco\UrbanEco\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E61A9E6-C27C-4446-A9C7-1711383F58DF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6155ADBD-FBDC-4D33-9F90-5A890839FF31}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{986A0A0D-AE78-4309-B56C-572321196D07}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{56DCC0EC-4121-444C-AAE6-FC104552622E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6E9B32-DDAB-4CAB-A0EB-0B12E9CDF183}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315B2F7E-74E4-4D1E-877A-BCAE798CDA9A}">
   <dimension ref="A3:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/UrbanEco/Excel/RapportProjet.xlsx
+++ b/UrbanEco/Excel/RapportProjet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1 - Prog 2018\Projet\CodeBreaker\GITPROJECT\UrbanEco\UrbanEco\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Cegep\Session 6 Informatique\UrbanEco2\UrbanEco\UrbanEco\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D77360A-B2FF-478B-B13A-E3142A6032F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D31F11DB-C82B-4DB0-82AC-DAB070ACBD70}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{324A8EE8-0094-4A3F-B974-5B1349775DFA}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{A9D5E8F6-0707-421E-B36F-076A052EF49F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="117">
+  <si>
+    <t>Suivi PGMR Rivière-du-Loup</t>
+  </si>
+  <si>
+    <t>Statistiques</t>
+  </si>
+  <si>
+    <t>Valérie Boulet-Thuotte</t>
+  </si>
+  <si>
+    <t>Gestion des matières résiduelles</t>
+  </si>
+  <si>
+    <t>Sophie Vachon</t>
+  </si>
+  <si>
+    <t>Katja Culhuac</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>PGMR - projets divers</t>
+  </si>
+  <si>
+    <t>Josée-Ann Dumais</t>
+  </si>
+  <si>
+    <t>Ecocentre Cacouna - construction</t>
+  </si>
+  <si>
+    <t>Ecocentre Rivière-du-Loup - réaménagement</t>
+  </si>
+  <si>
+    <t>Suivi PGMR Kamouraska</t>
+  </si>
+  <si>
+    <t>Gestion des matières organiques</t>
+  </si>
+  <si>
+    <t>MRC de Kamouraska</t>
+  </si>
+  <si>
+    <t>Suzanne Gaumond</t>
+  </si>
+  <si>
+    <t>Suivi PGMR des Basques</t>
+  </si>
+  <si>
+    <t>Réunions Comités</t>
+  </si>
+  <si>
+    <t>Tâches générales</t>
+  </si>
+  <si>
+    <t>FCM - TI</t>
+  </si>
+  <si>
+    <t>Offres de service</t>
+  </si>
+  <si>
+    <t>Formations</t>
+  </si>
+  <si>
+    <t>Service conseil</t>
+  </si>
+  <si>
+    <t>Projets spéciaux</t>
+  </si>
+  <si>
+    <t>Saint-Mathieu</t>
+  </si>
   <si>
     <t>Administration</t>
   </si>
@@ -39,70 +111,277 @@
     <t>Administration générale</t>
   </si>
   <si>
-    <t>Suzanne Gaumond</t>
-  </si>
-  <si>
     <t>Stéphane Guignard</t>
   </si>
   <si>
-    <t>Caroline Nadeau</t>
-  </si>
-  <si>
-    <t>Pascale Malenfant-Gamache</t>
-  </si>
-  <si>
-    <t>Karine Malenfant</t>
+    <t>Ian Chartrand</t>
+  </si>
+  <si>
+    <t>Noélie Hébert Tardif</t>
+  </si>
+  <si>
+    <t>Comptabilité</t>
+  </si>
+  <si>
+    <t>Rédaction, corr., rech. financement</t>
+  </si>
+  <si>
+    <t>Réunion d'équipe</t>
+  </si>
+  <si>
+    <t>Ressources humaines</t>
+  </si>
+  <si>
+    <t>Réseautage et veille</t>
+  </si>
+  <si>
+    <t>Ville de La Pocatière</t>
+  </si>
+  <si>
+    <t>Sensibilisation</t>
+  </si>
+  <si>
+    <t>Collecte qui carbure! ICI</t>
+  </si>
+  <si>
+    <t>Écocentres</t>
+  </si>
+  <si>
+    <t>Accueil et gestion quotidienne</t>
+  </si>
+  <si>
+    <t>Jocelyn Lévesque</t>
+  </si>
+  <si>
+    <t>Jean-Louis Vanier</t>
+  </si>
+  <si>
+    <t>François Gendron</t>
+  </si>
+  <si>
+    <t>Rémy Guillemette</t>
+  </si>
+  <si>
+    <t>François Bélanger</t>
+  </si>
+  <si>
+    <t>Peggy Dufaut</t>
+  </si>
+  <si>
+    <t>Johanne Martin</t>
+  </si>
+  <si>
+    <t>Gaston Lévesque</t>
+  </si>
+  <si>
+    <t>Aline Daigle</t>
+  </si>
+  <si>
+    <t>Guillaume Ouellet</t>
+  </si>
+  <si>
+    <t>Martin Beaulieu</t>
+  </si>
+  <si>
+    <t>Maxime Pelletier Labelle</t>
+  </si>
+  <si>
+    <t>André Paradis</t>
+  </si>
+  <si>
+    <t>Gestion administrative</t>
+  </si>
+  <si>
+    <t>Stéfany Briand</t>
+  </si>
+  <si>
+    <t>PROJET RÉUTILISATION (écomeubles)</t>
+  </si>
+  <si>
+    <t>Écocentre St-Hubert</t>
+  </si>
+  <si>
+    <t>Écocentres RDL - général</t>
+  </si>
+  <si>
+    <t>Ecocentres Kamouraska - général</t>
+  </si>
+  <si>
+    <t>Écocentre - ligne info</t>
+  </si>
+  <si>
+    <t>Ecocentres Kamouraska - matériel informatique</t>
+  </si>
+  <si>
+    <t>Ecocentres Kamouraska - halocarbures</t>
+  </si>
+  <si>
+    <t>Écocentres RDL - halocarbures</t>
+  </si>
+  <si>
+    <t>ERE</t>
+  </si>
+  <si>
+    <t>Communications-bulletins</t>
+  </si>
+  <si>
+    <t>ICI</t>
+  </si>
+  <si>
+    <t>Rédaction et corr., rech. financement</t>
+  </si>
+  <si>
+    <t>Kiosques</t>
+  </si>
+  <si>
+    <t>Mini-collecte</t>
+  </si>
+  <si>
+    <t>Calendriers général</t>
+  </si>
+  <si>
+    <t>Les Basques</t>
+  </si>
+  <si>
+    <t>Vacances et congés</t>
+  </si>
+  <si>
+    <t>Congés maladie</t>
   </si>
   <si>
     <t>Anne-Marie Beaudoin</t>
   </si>
   <si>
-    <t>Luce Bergeron</t>
-  </si>
-  <si>
-    <t>François Hamm</t>
-  </si>
-  <si>
-    <t>Catherine Avard</t>
-  </si>
-  <si>
-    <t>Ian Chartrand</t>
-  </si>
-  <si>
-    <t>Sophie Vachon</t>
-  </si>
-  <si>
-    <t>Katja Culhuac</t>
-  </si>
-  <si>
-    <t>Marie-Joëlle Côté</t>
-  </si>
-  <si>
-    <t>Josée-Ann Dumais</t>
-  </si>
-  <si>
-    <t>Valérie Boulet-Thuotte</t>
-  </si>
-  <si>
-    <t>Noélie Hébert Tardif</t>
-  </si>
-  <si>
-    <t>Comptabilité</t>
-  </si>
-  <si>
-    <t>Rédaction, corr., rech. financement</t>
-  </si>
-  <si>
-    <t>Réunion d'équipe</t>
-  </si>
-  <si>
-    <t>Ressources humaines</t>
-  </si>
-  <si>
-    <t>Stage</t>
-  </si>
-  <si>
-    <t>Réseautage et veille</t>
+    <t>Denis Thériault</t>
+  </si>
+  <si>
+    <t>ebureau2 -</t>
+  </si>
+  <si>
+    <t>eTerrain42 -</t>
+  </si>
+  <si>
+    <t>Congés fériés</t>
+  </si>
+  <si>
+    <t>Gabriel Soucy</t>
+  </si>
+  <si>
+    <t>ETerrain -</t>
+  </si>
+  <si>
+    <t>Mercedes Benz</t>
+  </si>
+  <si>
+    <t>ebureau1 -</t>
+  </si>
+  <si>
+    <t>Vacances</t>
+  </si>
+  <si>
+    <t>Heures accumulées ou sans solde</t>
+  </si>
+  <si>
+    <t>Congés personnels</t>
+  </si>
+  <si>
+    <t>Collecte qui carbure!</t>
+  </si>
+  <si>
+    <t>Général</t>
+  </si>
+  <si>
+    <t>Admin. et coordo.</t>
+  </si>
+  <si>
+    <t>Médias traditionnels</t>
+  </si>
+  <si>
+    <t>Médias sociaux et Internet</t>
+  </si>
+  <si>
+    <t>Ligne info</t>
+  </si>
+  <si>
+    <t>Capsules vidéos</t>
+  </si>
+  <si>
+    <t>ICI service conseil</t>
+  </si>
+  <si>
+    <t>Kiosques et séances d'info</t>
+  </si>
+  <si>
+    <t>Tournée des écoles</t>
+  </si>
+  <si>
+    <t>Projet Écoaction</t>
+  </si>
+  <si>
+    <t>ÉCOCHANTIER</t>
+  </si>
+  <si>
+    <t>Administration et gestion</t>
+  </si>
+  <si>
+    <t>travail sur le terrain Kamouraska</t>
+  </si>
+  <si>
+    <t>Sensibilisation-visites</t>
+  </si>
+  <si>
+    <t>Communication-Boutique-Publicité</t>
+  </si>
+  <si>
+    <t>Sensibilisation-promotion</t>
+  </si>
+  <si>
+    <t>Travail sur le terrain Rivière-du-Loup</t>
+  </si>
+  <si>
+    <t>Plan d'affaire</t>
+  </si>
+  <si>
+    <t>Mesures de suivis et résultats</t>
+  </si>
+  <si>
+    <t>ECONOMIE CIRCULAIRE</t>
+  </si>
+  <si>
+    <t>DEC - Canada</t>
+  </si>
+  <si>
+    <t>RQ-2 - Recyc-Québec</t>
+  </si>
+  <si>
+    <t>Superbac</t>
+  </si>
+  <si>
+    <t>RIDT - ERE et communication</t>
+  </si>
+  <si>
+    <t>Gestion</t>
+  </si>
+  <si>
+    <t>ERE et communication</t>
+  </si>
+  <si>
+    <t>Test et implémentation</t>
+  </si>
+  <si>
+    <t>Classe</t>
+  </si>
+  <si>
+    <t>Test heure</t>
+  </si>
+  <si>
+    <t>Heures</t>
+  </si>
+  <si>
+    <t>EBureau -</t>
+  </si>
+  <si>
+    <t>Eterrain1 -</t>
   </si>
 </sst>
 </file>
@@ -453,8 +732,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1160CD10-86FD-4696-98D2-3CED54C70A4B}">
-  <dimension ref="A3:D55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717B4A89-313A-427D-BDED-01C091D613F6}">
+  <dimension ref="A3:D386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,21 +750,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>3369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>179</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -493,13 +758,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -507,13 +772,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6">
-        <v>166</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -521,27 +786,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>450</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -549,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
         <v>8</v>
-      </c>
-      <c r="D9">
-        <v>978</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -563,13 +814,13 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>136</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -577,27 +828,13 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>1108</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -605,13 +842,13 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>776</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -619,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>216</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -633,27 +870,13 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>72</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -661,13 +884,13 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -675,27 +898,41 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>0</v>
       </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>4647</v>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -703,419 +940,3821 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25">
         <v>8</v>
-      </c>
-      <c r="D25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26">
-        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>248</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
       </c>
       <c r="D33">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34">
-        <v>14</v>
+        <v>460</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>134</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>175</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" t="s">
         <v>9</v>
-      </c>
-      <c r="D38">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39">
-        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>151</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" t="s">
         <v>15</v>
-      </c>
-      <c r="D44">
-        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D45">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>19</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48">
-        <v>430</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53">
-        <v>3</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" t="s">
         <v>23</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65">
         <v>12</v>
       </c>
-      <c r="D54">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" t="s">
+        <v>27</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" t="s">
+        <v>31</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>34</v>
+      </c>
+      <c r="B95" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96" t="s">
+        <v>35</v>
+      </c>
+      <c r="C96" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>34</v>
+      </c>
+      <c r="B98" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>34</v>
+      </c>
+      <c r="B99" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>34</v>
+      </c>
+      <c r="B100" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>34</v>
+      </c>
+      <c r="B102" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>34</v>
+      </c>
+      <c r="B103" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>34</v>
+      </c>
+      <c r="B104" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>34</v>
+      </c>
+      <c r="B105" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>34</v>
+      </c>
+      <c r="B107" t="s">
+        <v>36</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>37</v>
+      </c>
+      <c r="B110" t="s">
+        <v>38</v>
+      </c>
+      <c r="C110" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>37</v>
+      </c>
+      <c r="B111" t="s">
+        <v>38</v>
+      </c>
+      <c r="C111" t="s">
+        <v>39</v>
+      </c>
+      <c r="D111">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>37</v>
+      </c>
+      <c r="B112" t="s">
+        <v>38</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>37</v>
+      </c>
+      <c r="B113" t="s">
+        <v>38</v>
+      </c>
+      <c r="C113" t="s">
+        <v>40</v>
+      </c>
+      <c r="D113">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>37</v>
+      </c>
+      <c r="B114" t="s">
+        <v>38</v>
+      </c>
+      <c r="C114" t="s">
+        <v>41</v>
+      </c>
+      <c r="D114">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>37</v>
+      </c>
+      <c r="B115" t="s">
+        <v>38</v>
+      </c>
+      <c r="C115" t="s">
+        <v>42</v>
+      </c>
+      <c r="D115">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>37</v>
+      </c>
+      <c r="B116" t="s">
+        <v>38</v>
+      </c>
+      <c r="C116" t="s">
+        <v>43</v>
+      </c>
+      <c r="D116">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>37</v>
+      </c>
+      <c r="B117" t="s">
+        <v>38</v>
+      </c>
+      <c r="C117" t="s">
+        <v>44</v>
+      </c>
+      <c r="D117">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>37</v>
+      </c>
+      <c r="B119" t="s">
+        <v>38</v>
+      </c>
+      <c r="C119" t="s">
+        <v>45</v>
+      </c>
+      <c r="D119">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>37</v>
+      </c>
+      <c r="B120" t="s">
+        <v>38</v>
+      </c>
+      <c r="C120" t="s">
+        <v>46</v>
+      </c>
+      <c r="D120">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>37</v>
+      </c>
+      <c r="B121" t="s">
+        <v>38</v>
+      </c>
+      <c r="C121" t="s">
+        <v>39</v>
+      </c>
+      <c r="D121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>37</v>
+      </c>
+      <c r="B122" t="s">
+        <v>38</v>
+      </c>
+      <c r="C122" t="s">
+        <v>47</v>
+      </c>
+      <c r="D122">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>37</v>
+      </c>
+      <c r="B123" t="s">
+        <v>38</v>
+      </c>
+      <c r="C123" t="s">
+        <v>48</v>
+      </c>
+      <c r="D123">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>37</v>
+      </c>
+      <c r="B124" t="s">
+        <v>38</v>
+      </c>
+      <c r="C124" t="s">
+        <v>40</v>
+      </c>
+      <c r="D124">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>37</v>
+      </c>
+      <c r="B125" t="s">
+        <v>38</v>
+      </c>
+      <c r="C125" t="s">
+        <v>49</v>
+      </c>
+      <c r="D125">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>37</v>
+      </c>
+      <c r="B126" t="s">
+        <v>38</v>
+      </c>
+      <c r="C126" t="s">
+        <v>42</v>
+      </c>
+      <c r="D126">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>37</v>
+      </c>
+      <c r="B127" t="s">
+        <v>38</v>
+      </c>
+      <c r="C127" t="s">
+        <v>43</v>
+      </c>
+      <c r="D127">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>37</v>
+      </c>
+      <c r="B128" t="s">
+        <v>38</v>
+      </c>
+      <c r="C128" t="s">
+        <v>50</v>
+      </c>
+      <c r="D128">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>37</v>
+      </c>
+      <c r="B129" t="s">
+        <v>38</v>
+      </c>
+      <c r="C129" t="s">
+        <v>51</v>
+      </c>
+      <c r="D129">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>37</v>
+      </c>
+      <c r="B131" t="s">
+        <v>52</v>
+      </c>
+      <c r="C131" t="s">
+        <v>53</v>
+      </c>
+      <c r="D131">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>37</v>
+      </c>
+      <c r="B133" t="s">
+        <v>38</v>
+      </c>
+      <c r="C133" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>37</v>
+      </c>
+      <c r="B134" t="s">
+        <v>38</v>
+      </c>
+      <c r="C134" t="s">
+        <v>39</v>
+      </c>
+      <c r="D134">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>37</v>
+      </c>
+      <c r="B135" t="s">
+        <v>38</v>
+      </c>
+      <c r="C135" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>37</v>
+      </c>
+      <c r="B137" t="s">
+        <v>38</v>
+      </c>
+      <c r="C137" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>37</v>
+      </c>
+      <c r="B138" t="s">
+        <v>38</v>
+      </c>
+      <c r="C138" t="s">
+        <v>40</v>
+      </c>
+      <c r="D138">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>37</v>
+      </c>
+      <c r="B139" t="s">
+        <v>38</v>
+      </c>
+      <c r="C139" t="s">
+        <v>44</v>
+      </c>
+      <c r="D139">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>37</v>
+      </c>
+      <c r="B141" t="s">
+        <v>54</v>
+      </c>
+      <c r="C141" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>37</v>
+      </c>
+      <c r="B143" t="s">
+        <v>55</v>
+      </c>
+      <c r="C143" t="s">
+        <v>46</v>
+      </c>
+      <c r="D143">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>37</v>
+      </c>
+      <c r="B145" t="s">
+        <v>38</v>
+      </c>
+      <c r="C145" t="s">
+        <v>46</v>
+      </c>
+      <c r="D145">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>37</v>
+      </c>
+      <c r="B147" t="s">
+        <v>52</v>
+      </c>
+      <c r="C147" t="s">
+        <v>53</v>
+      </c>
+      <c r="D147">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>37</v>
+      </c>
+      <c r="B149" t="s">
+        <v>56</v>
+      </c>
+      <c r="C149" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>37</v>
+      </c>
+      <c r="B150" t="s">
+        <v>56</v>
+      </c>
+      <c r="C150" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>37</v>
+      </c>
+      <c r="B151" t="s">
+        <v>56</v>
+      </c>
+      <c r="C151" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>37</v>
+      </c>
+      <c r="B152" t="s">
+        <v>56</v>
+      </c>
+      <c r="C152" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>37</v>
+      </c>
+      <c r="B153" t="s">
+        <v>56</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>37</v>
+      </c>
+      <c r="B154" t="s">
+        <v>56</v>
+      </c>
+      <c r="C154" t="s">
+        <v>28</v>
+      </c>
+      <c r="D154">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>37</v>
+      </c>
+      <c r="B156" t="s">
+        <v>57</v>
+      </c>
+      <c r="C156" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>37</v>
+      </c>
+      <c r="B157" t="s">
+        <v>57</v>
+      </c>
+      <c r="C157" t="s">
+        <v>4</v>
+      </c>
+      <c r="D157">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>37</v>
+      </c>
+      <c r="B158" t="s">
+        <v>57</v>
+      </c>
+      <c r="C158" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>37</v>
+      </c>
+      <c r="B159" t="s">
+        <v>57</v>
+      </c>
+      <c r="C159" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>37</v>
+      </c>
+      <c r="B160" t="s">
+        <v>57</v>
+      </c>
+      <c r="C160" t="s">
+        <v>28</v>
+      </c>
+      <c r="D160">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>37</v>
+      </c>
+      <c r="B162" t="s">
+        <v>58</v>
+      </c>
+      <c r="C162" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>37</v>
+      </c>
+      <c r="B163" t="s">
+        <v>58</v>
+      </c>
+      <c r="C163" t="s">
+        <v>4</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>37</v>
+      </c>
+      <c r="B164" t="s">
+        <v>58</v>
+      </c>
+      <c r="C164" t="s">
+        <v>5</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>37</v>
+      </c>
+      <c r="B165" t="s">
+        <v>58</v>
+      </c>
+      <c r="C165" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>37</v>
+      </c>
+      <c r="B166" t="s">
+        <v>58</v>
+      </c>
+      <c r="C166" t="s">
+        <v>28</v>
+      </c>
+      <c r="D166">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>37</v>
+      </c>
+      <c r="B168" t="s">
+        <v>59</v>
+      </c>
+      <c r="C168" t="s">
+        <v>26</v>
+      </c>
+      <c r="D168">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>37</v>
+      </c>
+      <c r="B169" t="s">
+        <v>59</v>
+      </c>
+      <c r="C169" t="s">
+        <v>40</v>
+      </c>
+      <c r="D169">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>37</v>
+      </c>
+      <c r="B170" t="s">
+        <v>59</v>
+      </c>
+      <c r="C170" t="s">
+        <v>41</v>
+      </c>
+      <c r="D170">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>37</v>
+      </c>
+      <c r="B172" t="s">
+        <v>60</v>
+      </c>
+      <c r="C172" t="s">
+        <v>26</v>
+      </c>
+      <c r="D172">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>37</v>
+      </c>
+      <c r="B174" t="s">
+        <v>61</v>
+      </c>
+      <c r="C174" t="s">
+        <v>26</v>
+      </c>
+      <c r="D174">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>37</v>
+      </c>
+      <c r="B175" t="s">
+        <v>61</v>
+      </c>
+      <c r="C175" t="s">
+        <v>48</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>62</v>
+      </c>
+      <c r="B178" t="s">
+        <v>63</v>
+      </c>
+      <c r="C178" t="s">
+        <v>14</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>62</v>
+      </c>
+      <c r="B179" t="s">
+        <v>63</v>
+      </c>
+      <c r="C179" t="s">
+        <v>4</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>62</v>
+      </c>
+      <c r="B180" t="s">
+        <v>63</v>
+      </c>
+      <c r="C180" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>62</v>
+      </c>
+      <c r="B181" t="s">
+        <v>63</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2</v>
+      </c>
+      <c r="D181">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>62</v>
+      </c>
+      <c r="B182" t="s">
+        <v>63</v>
+      </c>
+      <c r="C182" t="s">
+        <v>28</v>
+      </c>
+      <c r="D182">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>62</v>
+      </c>
+      <c r="B184" t="s">
+        <v>64</v>
+      </c>
+      <c r="C184" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>62</v>
+      </c>
+      <c r="B186" t="s">
+        <v>65</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>62</v>
+      </c>
+      <c r="B188" t="s">
+        <v>20</v>
+      </c>
+      <c r="C188" t="s">
+        <v>5</v>
+      </c>
+      <c r="D188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>62</v>
+      </c>
+      <c r="B189" t="s">
+        <v>20</v>
+      </c>
+      <c r="C189" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>62</v>
+      </c>
+      <c r="B190" t="s">
+        <v>20</v>
+      </c>
+      <c r="C190" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>62</v>
+      </c>
+      <c r="B192" t="s">
+        <v>66</v>
+      </c>
+      <c r="C192" t="s">
+        <v>4</v>
+      </c>
+      <c r="D192">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>62</v>
+      </c>
+      <c r="B193" t="s">
+        <v>66</v>
+      </c>
+      <c r="C193" t="s">
+        <v>8</v>
+      </c>
+      <c r="D193">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>62</v>
+      </c>
+      <c r="B194" t="s">
+        <v>66</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>62</v>
+      </c>
+      <c r="B195" t="s">
+        <v>66</v>
+      </c>
+      <c r="C195" t="s">
+        <v>28</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>62</v>
+      </c>
+      <c r="B197" t="s">
+        <v>67</v>
+      </c>
+      <c r="C197" t="s">
+        <v>26</v>
+      </c>
+      <c r="D197">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>62</v>
+      </c>
+      <c r="B198" t="s">
+        <v>67</v>
+      </c>
+      <c r="C198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D198">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>62</v>
+      </c>
+      <c r="B200" t="s">
+        <v>68</v>
+      </c>
+      <c r="C200" t="s">
+        <v>4</v>
+      </c>
+      <c r="D200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>62</v>
+      </c>
+      <c r="B201" t="s">
+        <v>68</v>
+      </c>
+      <c r="C201" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>62</v>
+      </c>
+      <c r="B202" t="s">
+        <v>68</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>62</v>
+      </c>
+      <c r="B204" t="s">
+        <v>69</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>70</v>
+      </c>
+      <c r="B207" t="s">
+        <v>71</v>
+      </c>
+      <c r="C207" t="s">
+        <v>14</v>
+      </c>
+      <c r="D207">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>70</v>
+      </c>
+      <c r="B208" t="s">
+        <v>71</v>
+      </c>
+      <c r="C208" t="s">
+        <v>72</v>
+      </c>
+      <c r="D208">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>70</v>
+      </c>
+      <c r="B209" t="s">
+        <v>71</v>
+      </c>
+      <c r="C209" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>70</v>
+      </c>
+      <c r="B210" t="s">
+        <v>71</v>
+      </c>
+      <c r="C210" t="s">
+        <v>2</v>
+      </c>
+      <c r="D210">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>70</v>
+      </c>
+      <c r="B211" t="s">
+        <v>71</v>
+      </c>
+      <c r="C211" t="s">
+        <v>73</v>
+      </c>
+      <c r="D211">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>70</v>
+      </c>
+      <c r="B212" t="s">
+        <v>71</v>
+      </c>
+      <c r="C212" t="s">
+        <v>74</v>
+      </c>
+      <c r="D212">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>70</v>
+      </c>
+      <c r="B213" t="s">
+        <v>71</v>
+      </c>
+      <c r="C213" t="s">
+        <v>75</v>
+      </c>
+      <c r="D213">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>70</v>
+      </c>
+      <c r="B215" t="s">
+        <v>76</v>
+      </c>
+      <c r="C215" t="s">
+        <v>14</v>
+      </c>
+      <c r="D215">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>70</v>
+      </c>
+      <c r="B216" t="s">
+        <v>76</v>
+      </c>
+      <c r="C216" t="s">
+        <v>26</v>
+      </c>
+      <c r="D216">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>70</v>
+      </c>
+      <c r="B217" t="s">
+        <v>76</v>
+      </c>
+      <c r="C217" t="s">
+        <v>72</v>
+      </c>
+      <c r="D217">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>70</v>
+      </c>
+      <c r="B218" t="s">
+        <v>76</v>
+      </c>
+      <c r="C218" t="s">
+        <v>46</v>
+      </c>
+      <c r="D218">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>70</v>
+      </c>
+      <c r="B219" t="s">
+        <v>76</v>
+      </c>
+      <c r="C219" t="s">
+        <v>39</v>
+      </c>
+      <c r="D219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>70</v>
+      </c>
+      <c r="B220" t="s">
+        <v>76</v>
+      </c>
+      <c r="C220" t="s">
+        <v>4</v>
+      </c>
+      <c r="D220">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>70</v>
+      </c>
+      <c r="B221" t="s">
+        <v>76</v>
+      </c>
+      <c r="C221" t="s">
+        <v>5</v>
+      </c>
+      <c r="D221">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>70</v>
+      </c>
+      <c r="B222" t="s">
+        <v>76</v>
+      </c>
+      <c r="C222" t="s">
+        <v>47</v>
+      </c>
+      <c r="D222">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>70</v>
+      </c>
+      <c r="B223" t="s">
+        <v>76</v>
+      </c>
+      <c r="C223" t="s">
+        <v>48</v>
+      </c>
+      <c r="D223">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>70</v>
+      </c>
+      <c r="B224" t="s">
+        <v>76</v>
+      </c>
+      <c r="C224" t="s">
+        <v>77</v>
+      </c>
+      <c r="D224">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>70</v>
+      </c>
+      <c r="B225" t="s">
+        <v>76</v>
+      </c>
+      <c r="C225" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>70</v>
+      </c>
+      <c r="B226" t="s">
+        <v>76</v>
+      </c>
+      <c r="C226" t="s">
+        <v>40</v>
+      </c>
+      <c r="D226">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>70</v>
+      </c>
+      <c r="B227" t="s">
+        <v>76</v>
+      </c>
+      <c r="C227" t="s">
+        <v>49</v>
+      </c>
+      <c r="D227">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>70</v>
+      </c>
+      <c r="B228" t="s">
+        <v>76</v>
+      </c>
+      <c r="C228" t="s">
+        <v>41</v>
+      </c>
+      <c r="D228">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>70</v>
+      </c>
+      <c r="B229" t="s">
+        <v>76</v>
+      </c>
+      <c r="C229" t="s">
+        <v>2</v>
+      </c>
+      <c r="D229">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>70</v>
+      </c>
+      <c r="B230" t="s">
+        <v>76</v>
+      </c>
+      <c r="C230" t="s">
+        <v>53</v>
+      </c>
+      <c r="D230">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>70</v>
+      </c>
+      <c r="B231" t="s">
+        <v>76</v>
+      </c>
+      <c r="C231" t="s">
+        <v>42</v>
+      </c>
+      <c r="D231">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>70</v>
+      </c>
+      <c r="B232" t="s">
+        <v>76</v>
+      </c>
+      <c r="C232" t="s">
+        <v>28</v>
+      </c>
+      <c r="D232">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>70</v>
+      </c>
+      <c r="B233" t="s">
+        <v>76</v>
+      </c>
+      <c r="C233" t="s">
+        <v>43</v>
+      </c>
+      <c r="D233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>70</v>
+      </c>
+      <c r="B234" t="s">
+        <v>76</v>
+      </c>
+      <c r="C234" t="s">
+        <v>50</v>
+      </c>
+      <c r="D234">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>70</v>
+      </c>
+      <c r="B235" t="s">
+        <v>76</v>
+      </c>
+      <c r="C235" t="s">
+        <v>51</v>
+      </c>
+      <c r="D235">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>70</v>
+      </c>
+      <c r="B236" t="s">
+        <v>76</v>
+      </c>
+      <c r="C236" t="s">
+        <v>44</v>
+      </c>
+      <c r="D236">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>70</v>
+      </c>
+      <c r="B237" t="s">
+        <v>76</v>
+      </c>
+      <c r="C237" t="s">
+        <v>73</v>
+      </c>
+      <c r="D237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>70</v>
+      </c>
+      <c r="B238" t="s">
+        <v>76</v>
+      </c>
+      <c r="C238" t="s">
+        <v>78</v>
+      </c>
+      <c r="D238">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>70</v>
+      </c>
+      <c r="B239" t="s">
+        <v>76</v>
+      </c>
+      <c r="C239" t="s">
+        <v>79</v>
+      </c>
+      <c r="D239">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>70</v>
+      </c>
+      <c r="B240" t="s">
+        <v>76</v>
+      </c>
+      <c r="C240" t="s">
+        <v>80</v>
+      </c>
+      <c r="D240">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>70</v>
+      </c>
+      <c r="B241" t="s">
+        <v>76</v>
+      </c>
+      <c r="C241" t="s">
+        <v>74</v>
+      </c>
+      <c r="D241">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>70</v>
+      </c>
+      <c r="B242" t="s">
+        <v>76</v>
+      </c>
+      <c r="C242" t="s">
+        <v>75</v>
+      </c>
+      <c r="D242">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>70</v>
+      </c>
+      <c r="B244" t="s">
+        <v>81</v>
+      </c>
+      <c r="C244" t="s">
+        <v>14</v>
+      </c>
+      <c r="D244">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>70</v>
+      </c>
+      <c r="B245" t="s">
+        <v>81</v>
+      </c>
+      <c r="C245" t="s">
+        <v>27</v>
+      </c>
+      <c r="D245">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>70</v>
+      </c>
+      <c r="B246" t="s">
+        <v>81</v>
+      </c>
+      <c r="C246" t="s">
+        <v>4</v>
+      </c>
+      <c r="D246">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>70</v>
+      </c>
+      <c r="B247" t="s">
+        <v>81</v>
+      </c>
+      <c r="C247" t="s">
+        <v>5</v>
+      </c>
+      <c r="D247">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>70</v>
+      </c>
+      <c r="B248" t="s">
+        <v>81</v>
+      </c>
+      <c r="C248" t="s">
+        <v>8</v>
+      </c>
+      <c r="D248">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>70</v>
+      </c>
+      <c r="B249" t="s">
+        <v>81</v>
+      </c>
+      <c r="C249" t="s">
+        <v>2</v>
+      </c>
+      <c r="D249">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>70</v>
+      </c>
+      <c r="B250" t="s">
+        <v>81</v>
+      </c>
+      <c r="C250" t="s">
+        <v>43</v>
+      </c>
+      <c r="D250">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>70</v>
+      </c>
+      <c r="B251" t="s">
+        <v>81</v>
+      </c>
+      <c r="C251" t="s">
+        <v>74</v>
+      </c>
+      <c r="D251">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>70</v>
+      </c>
+      <c r="B252" t="s">
+        <v>81</v>
+      </c>
+      <c r="C252" t="s">
+        <v>75</v>
+      </c>
+      <c r="D252">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>70</v>
+      </c>
+      <c r="B254" t="s">
+        <v>82</v>
+      </c>
+      <c r="C254" t="s">
+        <v>43</v>
+      </c>
+      <c r="D254">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>70</v>
+      </c>
+      <c r="B255" t="s">
+        <v>82</v>
+      </c>
+      <c r="C255" t="s">
+        <v>79</v>
+      </c>
+      <c r="D255">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>70</v>
+      </c>
+      <c r="B256" t="s">
+        <v>82</v>
+      </c>
+      <c r="C256" t="s">
+        <v>80</v>
+      </c>
+      <c r="D256">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>70</v>
+      </c>
+      <c r="B258" t="s">
+        <v>83</v>
+      </c>
+      <c r="C258" t="s">
+        <v>14</v>
+      </c>
+      <c r="D258">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>70</v>
+      </c>
+      <c r="B259" t="s">
+        <v>83</v>
+      </c>
+      <c r="C259" t="s">
+        <v>4</v>
+      </c>
+      <c r="D259">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>70</v>
+      </c>
+      <c r="B260" t="s">
+        <v>83</v>
+      </c>
+      <c r="C260" t="s">
+        <v>5</v>
+      </c>
+      <c r="D260">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>70</v>
+      </c>
+      <c r="B261" t="s">
+        <v>83</v>
+      </c>
+      <c r="C261" t="s">
+        <v>74</v>
+      </c>
+      <c r="D261">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>70</v>
+      </c>
+      <c r="B262" t="s">
+        <v>83</v>
+      </c>
+      <c r="C262" t="s">
+        <v>75</v>
+      </c>
+      <c r="D262">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>84</v>
+      </c>
+      <c r="B265" t="s">
+        <v>85</v>
+      </c>
+      <c r="C265" t="s">
+        <v>28</v>
+      </c>
+      <c r="D265">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>84</v>
+      </c>
+      <c r="B267" t="s">
+        <v>86</v>
+      </c>
+      <c r="C267" t="s">
+        <v>14</v>
+      </c>
+      <c r="D267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>84</v>
+      </c>
+      <c r="B268" t="s">
+        <v>86</v>
+      </c>
+      <c r="C268" t="s">
+        <v>4</v>
+      </c>
+      <c r="D268">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>84</v>
+      </c>
+      <c r="B269" t="s">
+        <v>86</v>
+      </c>
+      <c r="C269" t="s">
+        <v>8</v>
+      </c>
+      <c r="D269">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>84</v>
+      </c>
+      <c r="B270" t="s">
+        <v>86</v>
+      </c>
+      <c r="C270" t="s">
+        <v>2</v>
+      </c>
+      <c r="D270">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>84</v>
+      </c>
+      <c r="B271" t="s">
+        <v>86</v>
+      </c>
+      <c r="C271" t="s">
+        <v>28</v>
+      </c>
+      <c r="D271">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>84</v>
+      </c>
+      <c r="B273" t="s">
+        <v>87</v>
+      </c>
+      <c r="C273" t="s">
+        <v>14</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>84</v>
+      </c>
+      <c r="B274" t="s">
+        <v>87</v>
+      </c>
+      <c r="C274" t="s">
+        <v>4</v>
+      </c>
+      <c r="D274">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>84</v>
+      </c>
+      <c r="B275" t="s">
+        <v>87</v>
+      </c>
+      <c r="C275" t="s">
+        <v>8</v>
+      </c>
+      <c r="D275">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>84</v>
+      </c>
+      <c r="B276" t="s">
+        <v>87</v>
+      </c>
+      <c r="C276" t="s">
+        <v>28</v>
+      </c>
+      <c r="D276">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>84</v>
+      </c>
+      <c r="B278" t="s">
+        <v>88</v>
+      </c>
+      <c r="C278" t="s">
+        <v>4</v>
+      </c>
+      <c r="D278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>84</v>
+      </c>
+      <c r="B279" t="s">
+        <v>88</v>
+      </c>
+      <c r="C279" t="s">
+        <v>8</v>
+      </c>
+      <c r="D279">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>84</v>
+      </c>
+      <c r="B280" t="s">
+        <v>88</v>
+      </c>
+      <c r="C280" t="s">
+        <v>28</v>
+      </c>
+      <c r="D280">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>84</v>
+      </c>
+      <c r="B282" t="s">
+        <v>89</v>
+      </c>
+      <c r="C282" t="s">
+        <v>4</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>84</v>
+      </c>
+      <c r="B283" t="s">
+        <v>89</v>
+      </c>
+      <c r="C283" t="s">
+        <v>2</v>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>84</v>
+      </c>
+      <c r="B284" t="s">
+        <v>89</v>
+      </c>
+      <c r="C284" t="s">
+        <v>28</v>
+      </c>
+      <c r="D284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>84</v>
+      </c>
+      <c r="B286" t="s">
+        <v>90</v>
+      </c>
+      <c r="C286" t="s">
+        <v>2</v>
+      </c>
+      <c r="D286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>84</v>
+      </c>
+      <c r="B287" t="s">
+        <v>90</v>
+      </c>
+      <c r="C287" t="s">
+        <v>28</v>
+      </c>
+      <c r="D287">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>84</v>
+      </c>
+      <c r="B289" t="s">
+        <v>91</v>
+      </c>
+      <c r="C289" t="s">
+        <v>2</v>
+      </c>
+      <c r="D289">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>84</v>
+      </c>
+      <c r="B291" t="s">
+        <v>92</v>
+      </c>
+      <c r="C291" t="s">
+        <v>4</v>
+      </c>
+      <c r="D291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>84</v>
+      </c>
+      <c r="B292" t="s">
+        <v>92</v>
+      </c>
+      <c r="C292" t="s">
+        <v>8</v>
+      </c>
+      <c r="D292">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>84</v>
+      </c>
+      <c r="B293" t="s">
+        <v>92</v>
+      </c>
+      <c r="C293" t="s">
+        <v>2</v>
+      </c>
+      <c r="D293">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>84</v>
+      </c>
+      <c r="B294" t="s">
+        <v>92</v>
+      </c>
+      <c r="C294" t="s">
+        <v>28</v>
+      </c>
+      <c r="D294">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>84</v>
+      </c>
+      <c r="B296" t="s">
+        <v>66</v>
+      </c>
+      <c r="C296" t="s">
+        <v>8</v>
+      </c>
+      <c r="D296">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>84</v>
+      </c>
+      <c r="B298" t="s">
+        <v>66</v>
+      </c>
+      <c r="C298" t="s">
+        <v>8</v>
+      </c>
+      <c r="D298">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>84</v>
+      </c>
+      <c r="B300" t="s">
+        <v>93</v>
+      </c>
+      <c r="C300" t="s">
+        <v>8</v>
+      </c>
+      <c r="D300">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>84</v>
+      </c>
+      <c r="B302" t="s">
+        <v>94</v>
+      </c>
+      <c r="C302" t="s">
+        <v>4</v>
+      </c>
+      <c r="D302">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>84</v>
+      </c>
+      <c r="B303" t="s">
+        <v>94</v>
+      </c>
+      <c r="C303" t="s">
+        <v>8</v>
+      </c>
+      <c r="D303">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>84</v>
+      </c>
+      <c r="B304" t="s">
+        <v>94</v>
+      </c>
+      <c r="C304" t="s">
+        <v>2</v>
+      </c>
+      <c r="D304">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>84</v>
+      </c>
+      <c r="B305" t="s">
+        <v>94</v>
+      </c>
+      <c r="C305" t="s">
+        <v>28</v>
+      </c>
+      <c r="D305">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>95</v>
+      </c>
+      <c r="B308" t="s">
+        <v>96</v>
+      </c>
+      <c r="C308" t="s">
+        <v>14</v>
+      </c>
+      <c r="D308">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>95</v>
+      </c>
+      <c r="B309" t="s">
+        <v>96</v>
+      </c>
+      <c r="C309" t="s">
+        <v>4</v>
+      </c>
+      <c r="D309">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>95</v>
+      </c>
+      <c r="B310" t="s">
+        <v>96</v>
+      </c>
+      <c r="C310" t="s">
+        <v>5</v>
+      </c>
+      <c r="D310">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>95</v>
+      </c>
+      <c r="B311" t="s">
+        <v>96</v>
+      </c>
+      <c r="C311" t="s">
+        <v>8</v>
+      </c>
+      <c r="D311">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>95</v>
+      </c>
+      <c r="B313" t="s">
+        <v>97</v>
+      </c>
+      <c r="C313" t="s">
+        <v>26</v>
+      </c>
+      <c r="D313">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>95</v>
+      </c>
+      <c r="B314" t="s">
+        <v>97</v>
+      </c>
+      <c r="C314" t="s">
+        <v>5</v>
+      </c>
+      <c r="D314">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>95</v>
+      </c>
+      <c r="B315" t="s">
+        <v>97</v>
+      </c>
+      <c r="C315" t="s">
+        <v>48</v>
+      </c>
+      <c r="D315">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>95</v>
+      </c>
+      <c r="B316" t="s">
+        <v>97</v>
+      </c>
+      <c r="C316" t="s">
+        <v>77</v>
+      </c>
+      <c r="D316">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>95</v>
+      </c>
+      <c r="B317" t="s">
+        <v>97</v>
+      </c>
+      <c r="C317" t="s">
+        <v>40</v>
+      </c>
+      <c r="D317">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>95</v>
+      </c>
+      <c r="B318" t="s">
+        <v>97</v>
+      </c>
+      <c r="C318" t="s">
+        <v>41</v>
+      </c>
+      <c r="D318">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>95</v>
+      </c>
+      <c r="B319" t="s">
+        <v>97</v>
+      </c>
+      <c r="C319" t="s">
+        <v>53</v>
+      </c>
+      <c r="D319">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>95</v>
+      </c>
+      <c r="B320" t="s">
+        <v>97</v>
+      </c>
+      <c r="C320" t="s">
+        <v>42</v>
+      </c>
+      <c r="D320">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>95</v>
+      </c>
+      <c r="B322" t="s">
+        <v>98</v>
+      </c>
+      <c r="C322" t="s">
+        <v>5</v>
+      </c>
+      <c r="D322">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>95</v>
+      </c>
+      <c r="B324" t="s">
+        <v>99</v>
+      </c>
+      <c r="C324" t="s">
+        <v>14</v>
+      </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>95</v>
+      </c>
+      <c r="B325" t="s">
+        <v>99</v>
+      </c>
+      <c r="C325" t="s">
+        <v>4</v>
+      </c>
+      <c r="D325">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>95</v>
+      </c>
+      <c r="B326" t="s">
+        <v>99</v>
+      </c>
+      <c r="C326" t="s">
+        <v>5</v>
+      </c>
+      <c r="D326">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>95</v>
+      </c>
+      <c r="B327" t="s">
+        <v>99</v>
+      </c>
+      <c r="C327" t="s">
+        <v>8</v>
+      </c>
+      <c r="D327">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>95</v>
+      </c>
+      <c r="B328" t="s">
+        <v>99</v>
+      </c>
+      <c r="C328" t="s">
+        <v>41</v>
+      </c>
+      <c r="D328">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>95</v>
+      </c>
+      <c r="B329" t="s">
+        <v>99</v>
+      </c>
+      <c r="C329" t="s">
+        <v>28</v>
+      </c>
+      <c r="D329">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>95</v>
+      </c>
+      <c r="B331" t="s">
+        <v>100</v>
+      </c>
+      <c r="C331" t="s">
+        <v>26</v>
+      </c>
+      <c r="D331">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>95</v>
+      </c>
+      <c r="B332" t="s">
+        <v>100</v>
+      </c>
+      <c r="C332" t="s">
+        <v>4</v>
+      </c>
+      <c r="D332">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>95</v>
+      </c>
+      <c r="B333" t="s">
+        <v>100</v>
+      </c>
+      <c r="C333" t="s">
+        <v>5</v>
+      </c>
+      <c r="D333">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>95</v>
+      </c>
+      <c r="B334" t="s">
+        <v>100</v>
+      </c>
+      <c r="C334" t="s">
+        <v>8</v>
+      </c>
+      <c r="D334">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>95</v>
+      </c>
+      <c r="B335" t="s">
+        <v>100</v>
+      </c>
+      <c r="C335" t="s">
+        <v>41</v>
+      </c>
+      <c r="D335">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>95</v>
+      </c>
+      <c r="B336" t="s">
+        <v>100</v>
+      </c>
+      <c r="C336" t="s">
+        <v>28</v>
+      </c>
+      <c r="D336">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>95</v>
+      </c>
+      <c r="B338" t="s">
+        <v>101</v>
+      </c>
+      <c r="C338" t="s">
+        <v>26</v>
+      </c>
+      <c r="D338">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>95</v>
+      </c>
+      <c r="B339" t="s">
+        <v>101</v>
+      </c>
+      <c r="C339" t="s">
+        <v>5</v>
+      </c>
+      <c r="D339">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>95</v>
+      </c>
+      <c r="B340" t="s">
+        <v>101</v>
+      </c>
+      <c r="C340" t="s">
+        <v>48</v>
+      </c>
+      <c r="D340">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>95</v>
+      </c>
+      <c r="B341" t="s">
+        <v>101</v>
+      </c>
+      <c r="C341" t="s">
+        <v>40</v>
+      </c>
+      <c r="D341">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>95</v>
+      </c>
+      <c r="B342" t="s">
+        <v>101</v>
+      </c>
+      <c r="C342" t="s">
+        <v>41</v>
+      </c>
+      <c r="D342">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>95</v>
+      </c>
+      <c r="B343" t="s">
+        <v>101</v>
+      </c>
+      <c r="C343" t="s">
+        <v>42</v>
+      </c>
+      <c r="D343">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>95</v>
+      </c>
+      <c r="B344" t="s">
+        <v>101</v>
+      </c>
+      <c r="C344" t="s">
+        <v>43</v>
+      </c>
+      <c r="D344">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>95</v>
+      </c>
+      <c r="B345" t="s">
+        <v>101</v>
+      </c>
+      <c r="C345" t="s">
+        <v>50</v>
+      </c>
+      <c r="D345">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>95</v>
+      </c>
+      <c r="B347" t="s">
+        <v>102</v>
+      </c>
+      <c r="C347" t="s">
+        <v>4</v>
+      </c>
+      <c r="D347">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>95</v>
+      </c>
+      <c r="B348" t="s">
+        <v>102</v>
+      </c>
+      <c r="C348" t="s">
+        <v>5</v>
+      </c>
+      <c r="D348">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>95</v>
+      </c>
+      <c r="B349" t="s">
+        <v>102</v>
+      </c>
+      <c r="C349" t="s">
+        <v>8</v>
+      </c>
+      <c r="D349">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>95</v>
+      </c>
+      <c r="B350" t="s">
+        <v>102</v>
+      </c>
+      <c r="C350" t="s">
+        <v>41</v>
+      </c>
+      <c r="D350">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>95</v>
+      </c>
+      <c r="B352" t="s">
+        <v>103</v>
+      </c>
+      <c r="C352" t="s">
+        <v>14</v>
+      </c>
+      <c r="D352">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>95</v>
+      </c>
+      <c r="B353" t="s">
+        <v>103</v>
+      </c>
+      <c r="C353" t="s">
+        <v>4</v>
+      </c>
+      <c r="D353">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>95</v>
+      </c>
+      <c r="B354" t="s">
+        <v>103</v>
+      </c>
+      <c r="C354" t="s">
+        <v>5</v>
+      </c>
+      <c r="D354">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>104</v>
+      </c>
+      <c r="B357" t="s">
+        <v>105</v>
+      </c>
+      <c r="C357" t="s">
+        <v>4</v>
+      </c>
+      <c r="D357">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>104</v>
+      </c>
+      <c r="B358" t="s">
+        <v>105</v>
+      </c>
+      <c r="C358" t="s">
+        <v>5</v>
+      </c>
+      <c r="D358">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>104</v>
+      </c>
+      <c r="B359" t="s">
+        <v>105</v>
+      </c>
+      <c r="C359" t="s">
+        <v>8</v>
+      </c>
+      <c r="D359">
         <v>23</v>
       </c>
-      <c r="C55" t="s">
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>104</v>
+      </c>
+      <c r="B360" t="s">
+        <v>105</v>
+      </c>
+      <c r="C360" t="s">
+        <v>2</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>104</v>
+      </c>
+      <c r="B362" t="s">
+        <v>106</v>
+      </c>
+      <c r="C362" t="s">
+        <v>4</v>
+      </c>
+      <c r="D362">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>104</v>
+      </c>
+      <c r="B363" t="s">
+        <v>106</v>
+      </c>
+      <c r="C363" t="s">
+        <v>5</v>
+      </c>
+      <c r="D363">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>107</v>
+      </c>
+      <c r="B366" t="s">
+        <v>107</v>
+      </c>
+      <c r="C366" t="s">
+        <v>14</v>
+      </c>
+      <c r="D366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>107</v>
+      </c>
+      <c r="B367" t="s">
+        <v>107</v>
+      </c>
+      <c r="C367" t="s">
+        <v>4</v>
+      </c>
+      <c r="D367">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>107</v>
+      </c>
+      <c r="B368" t="s">
+        <v>107</v>
+      </c>
+      <c r="C368" t="s">
+        <v>8</v>
+      </c>
+      <c r="D368">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>107</v>
+      </c>
+      <c r="B369" t="s">
+        <v>107</v>
+      </c>
+      <c r="C369" t="s">
+        <v>28</v>
+      </c>
+      <c r="D369">
         <v>15</v>
       </c>
-      <c r="D55">
-        <v>6</v>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>108</v>
+      </c>
+      <c r="B372" t="s">
+        <v>109</v>
+      </c>
+      <c r="C372" t="s">
+        <v>28</v>
+      </c>
+      <c r="D372">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>108</v>
+      </c>
+      <c r="B374" t="s">
+        <v>110</v>
+      </c>
+      <c r="C374" t="s">
+        <v>28</v>
+      </c>
+      <c r="D374">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>111</v>
+      </c>
+      <c r="B377" t="s">
+        <v>112</v>
+      </c>
+      <c r="C377" t="s">
+        <v>49</v>
+      </c>
+      <c r="D377">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>111</v>
+      </c>
+      <c r="B378" t="s">
+        <v>112</v>
+      </c>
+      <c r="C378" t="s">
+        <v>43</v>
+      </c>
+      <c r="D378">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>113</v>
+      </c>
+      <c r="B381" t="s">
+        <v>114</v>
+      </c>
+      <c r="C381" t="s">
+        <v>78</v>
+      </c>
+      <c r="D381">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>113</v>
+      </c>
+      <c r="B382" t="s">
+        <v>114</v>
+      </c>
+      <c r="C382" t="s">
+        <v>115</v>
+      </c>
+      <c r="D382">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>113</v>
+      </c>
+      <c r="B383" t="s">
+        <v>114</v>
+      </c>
+      <c r="C383" t="s">
+        <v>116</v>
+      </c>
+      <c r="D383">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>113</v>
+      </c>
+      <c r="B384" t="s">
+        <v>114</v>
+      </c>
+      <c r="C384" t="s">
+        <v>80</v>
+      </c>
+      <c r="D384">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>113</v>
+      </c>
+      <c r="B385" t="s">
+        <v>114</v>
+      </c>
+      <c r="C385" t="s">
+        <v>74</v>
+      </c>
+      <c r="D385">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>113</v>
+      </c>
+      <c r="B386" t="s">
+        <v>114</v>
+      </c>
+      <c r="C386" t="s">
+        <v>75</v>
+      </c>
+      <c r="D386">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/UrbanEco/Excel/RapportProjet.xlsx
+++ b/UrbanEco/Excel/RapportProjet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1 - Prog 2018\Projet\CodeBreaker\GITPROJECT\UrbanEco\UrbanEco\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Hub\UrbanEco\UrbanEco\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D77360A-B2FF-478B-B13A-E3142A6032F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2271034-9DFE-4853-A27A-7A9453B9CE9C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{324A8EE8-0094-4A3F-B974-5B1349775DFA}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{54E90046-FDB9-4582-808E-62A4291BBE52}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,78 +31,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="24">
-  <si>
-    <t>Administration</t>
-  </si>
-  <si>
-    <t>Administration générale</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="22">
+  <si>
+    <t>Collecte qui carbure!</t>
+  </si>
+  <si>
+    <t>MRC de Kamouraska</t>
+  </si>
+  <si>
+    <t>Anne-Marie Beaudoin</t>
+  </si>
+  <si>
+    <t>MRC de Rivière-du-Loup</t>
+  </si>
+  <si>
+    <t>Général</t>
+  </si>
+  <si>
+    <t>Marie-Joëlle Côté</t>
+  </si>
+  <si>
+    <t>Noélie Hébert Tardif</t>
+  </si>
+  <si>
+    <t>Admin. et coordo.</t>
   </si>
   <si>
     <t>Suzanne Gaumond</t>
   </si>
   <si>
-    <t>Stéphane Guignard</t>
-  </si>
-  <si>
-    <t>Caroline Nadeau</t>
-  </si>
-  <si>
-    <t>Pascale Malenfant-Gamache</t>
-  </si>
-  <si>
-    <t>Karine Malenfant</t>
-  </si>
-  <si>
-    <t>Anne-Marie Beaudoin</t>
-  </si>
-  <si>
-    <t>Luce Bergeron</t>
-  </si>
-  <si>
-    <t>François Hamm</t>
-  </si>
-  <si>
-    <t>Catherine Avard</t>
-  </si>
-  <si>
     <t>Ian Chartrand</t>
   </si>
   <si>
     <t>Sophie Vachon</t>
   </si>
   <si>
-    <t>Katja Culhuac</t>
-  </si>
-  <si>
-    <t>Marie-Joëlle Côté</t>
-  </si>
-  <si>
     <t>Josée-Ann Dumais</t>
   </si>
   <si>
     <t>Valérie Boulet-Thuotte</t>
   </si>
   <si>
-    <t>Noélie Hébert Tardif</t>
-  </si>
-  <si>
-    <t>Comptabilité</t>
-  </si>
-  <si>
-    <t>Rédaction, corr., rech. financement</t>
-  </si>
-  <si>
-    <t>Réunion d'équipe</t>
-  </si>
-  <si>
-    <t>Ressources humaines</t>
-  </si>
-  <si>
-    <t>Stage</t>
-  </si>
-  <si>
-    <t>Réseautage et veille</t>
+    <t>Médias traditionnels</t>
+  </si>
+  <si>
+    <t>Médias sociaux et Internet</t>
+  </si>
+  <si>
+    <t>Ligne info</t>
+  </si>
+  <si>
+    <t>Capsules vidéos</t>
+  </si>
+  <si>
+    <t>ICI service conseil</t>
+  </si>
+  <si>
+    <t>Kiosques et séances d'info</t>
+  </si>
+  <si>
+    <t>Kiosques</t>
+  </si>
+  <si>
+    <t>Tournée des écoles</t>
+  </si>
+  <si>
+    <t>Projet Écoaction</t>
   </si>
 </sst>
 </file>
@@ -453,8 +447,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1160CD10-86FD-4696-98D2-3CED54C70A4B}">
-  <dimension ref="A3:D55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE1D251-AC85-481B-84A9-38D1232BF5B0}">
+  <dimension ref="A3:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,21 +465,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>3369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>179</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -493,27 +473,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>166</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -521,13 +487,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -535,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>450</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -549,27 +515,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
         <v>9</v>
-      </c>
-      <c r="D10">
-        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -577,13 +529,13 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -591,13 +543,13 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>1108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -605,13 +557,13 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>776</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -619,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>216</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -633,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>109</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -647,27 +599,13 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -675,13 +613,27 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18">
-        <v>43</v>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -689,13 +641,27 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>4647</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -703,13 +669,13 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>165</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -717,27 +683,13 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -745,13 +697,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25">
         <v>8</v>
-      </c>
-      <c r="D25">
-        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,13 +711,13 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>333</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -773,13 +725,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>248</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -787,27 +739,13 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -815,13 +753,13 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D30">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -829,13 +767,27 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -843,27 +795,13 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33">
         <v>2</v>
-      </c>
-      <c r="D33">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34">
-        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -871,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D35">
-        <v>134</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -885,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D36">
-        <v>175</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -899,27 +837,13 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37">
         <v>20</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38">
-        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -927,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
       </c>
       <c r="D39">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -941,27 +865,13 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41">
-        <v>188</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -969,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D42">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -983,13 +893,13 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D43">
-        <v>108</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -997,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D44">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1011,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D45">
-        <v>31</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1025,13 +935,13 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D46">
-        <v>19</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1039,27 +949,27 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D48">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" t="s">
         <v>10</v>
+      </c>
+      <c r="D50">
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1067,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D51">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1081,27 +991,13 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C53" t="s">
         <v>11</v>
       </c>
       <c r="D53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1109,12 +1005,68 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59">
         <v>6</v>
       </c>
     </row>

--- a/UrbanEco/Excel/RapportProjet.xlsx
+++ b/UrbanEco/Excel/RapportProjet.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Hub\UrbanEco\UrbanEco\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\UrbanEco\UrbanEco\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2271034-9DFE-4853-A27A-7A9453B9CE9C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30B2FFCB-384B-4177-A40D-8CF58B954158}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{54E90046-FDB9-4582-808E-62A4291BBE52}"/>
+    <workbookView xWindow="6750" yWindow="1365" windowWidth="21600" windowHeight="11385" xr2:uid="{2E820600-D4AB-442B-B6A6-55B9AD40B143}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,72 +31,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="22">
-  <si>
-    <t>Collecte qui carbure!</t>
-  </si>
-  <si>
-    <t>MRC de Kamouraska</t>
-  </si>
-  <si>
-    <t>Anne-Marie Beaudoin</t>
-  </si>
-  <si>
-    <t>MRC de Rivière-du-Loup</t>
-  </si>
-  <si>
-    <t>Général</t>
-  </si>
-  <si>
-    <t>Marie-Joëlle Côté</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="15">
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>Administration générale</t>
+  </si>
+  <si>
+    <t>Suzanne Gaumond</t>
+  </si>
+  <si>
+    <t>Sophie Vachon</t>
+  </si>
+  <si>
+    <t>Katja Culhuac</t>
+  </si>
+  <si>
+    <t>Valérie Boulet-Thuotte</t>
   </si>
   <si>
     <t>Noélie Hébert Tardif</t>
   </si>
   <si>
-    <t>Admin. et coordo.</t>
-  </si>
-  <si>
-    <t>Suzanne Gaumond</t>
-  </si>
-  <si>
-    <t>Ian Chartrand</t>
-  </si>
-  <si>
-    <t>Sophie Vachon</t>
-  </si>
-  <si>
-    <t>Josée-Ann Dumais</t>
-  </si>
-  <si>
-    <t>Valérie Boulet-Thuotte</t>
-  </si>
-  <si>
-    <t>Médias traditionnels</t>
-  </si>
-  <si>
-    <t>Médias sociaux et Internet</t>
-  </si>
-  <si>
-    <t>Ligne info</t>
-  </si>
-  <si>
-    <t>Capsules vidéos</t>
-  </si>
-  <si>
-    <t>ICI service conseil</t>
-  </si>
-  <si>
-    <t>Kiosques et séances d'info</t>
-  </si>
-  <si>
-    <t>Kiosques</t>
-  </si>
-  <si>
-    <t>Tournée des écoles</t>
-  </si>
-  <si>
-    <t>Projet Écoaction</t>
+    <t>Comptabilité</t>
+  </si>
+  <si>
+    <t>Rédaction, corr., rech. financement</t>
+  </si>
+  <si>
+    <t>Réunion d'équipe</t>
+  </si>
+  <si>
+    <t>Ressources humaines</t>
+  </si>
+  <si>
+    <t>Réseautage et veille</t>
+  </si>
+  <si>
+    <t>Site WEB</t>
+  </si>
+  <si>
+    <t>Exemple</t>
+  </si>
+  <si>
+    <t>Guillaume Gagnon</t>
   </si>
 </sst>
 </file>
@@ -152,7 +131,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -447,12 +426,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE1D251-AC85-481B-84A9-38D1232BF5B0}">
-  <dimension ref="A3:D59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9593DF2C-2B69-45C8-996B-F3C809E19677}">
+  <dimension ref="A3:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -465,7 +444,21 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -473,13 +466,27 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -487,27 +494,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>123</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -515,13 +508,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -529,13 +522,13 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -543,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>110</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -557,27 +550,13 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -585,13 +564,13 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -599,13 +578,27 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>38</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -613,10 +606,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -627,27 +620,13 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -655,13 +634,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>68</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -669,41 +648,27 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
         <v>11</v>
       </c>
-      <c r="D22">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25">
-        <v>8</v>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -711,13 +676,13 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -725,41 +690,27 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
         <v>14</v>
       </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
+      <c r="D29">
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -767,307 +718,13 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D31">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" t="s">
         <v>10</v>
-      </c>
-      <c r="D35">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" t="s">
-        <v>21</v>
-      </c>
-      <c r="C58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" t="s">
-        <v>21</v>
-      </c>
-      <c r="C59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/UrbanEco/Excel/RapportProjet.xlsx
+++ b/UrbanEco/Excel/RapportProjet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Hub\UrbanEco\UrbanEco\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2271034-9DFE-4853-A27A-7A9453B9CE9C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40018084-3940-4AD4-9A53-16B877730B4D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{54E90046-FDB9-4582-808E-62A4291BBE52}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{946B12DF-DF7F-4B21-910F-EEF20D6EF30A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,72 +31,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="22">
-  <si>
-    <t>Collecte qui carbure!</t>
-  </si>
-  <si>
-    <t>MRC de Kamouraska</t>
-  </si>
-  <si>
-    <t>Anne-Marie Beaudoin</t>
-  </si>
-  <si>
-    <t>MRC de Rivière-du-Loup</t>
-  </si>
-  <si>
-    <t>Général</t>
-  </si>
-  <si>
-    <t>Marie-Joëlle Côté</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="15">
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>Administration générale</t>
+  </si>
+  <si>
+    <t>Suzanne Gaumond</t>
+  </si>
+  <si>
+    <t>Sophie Vachon</t>
+  </si>
+  <si>
+    <t>Katja Culhuac</t>
+  </si>
+  <si>
+    <t>Valérie Boulet-Thuotte</t>
   </si>
   <si>
     <t>Noélie Hébert Tardif</t>
   </si>
   <si>
-    <t>Admin. et coordo.</t>
-  </si>
-  <si>
-    <t>Suzanne Gaumond</t>
-  </si>
-  <si>
-    <t>Ian Chartrand</t>
-  </si>
-  <si>
-    <t>Sophie Vachon</t>
-  </si>
-  <si>
-    <t>Josée-Ann Dumais</t>
-  </si>
-  <si>
-    <t>Valérie Boulet-Thuotte</t>
-  </si>
-  <si>
-    <t>Médias traditionnels</t>
-  </si>
-  <si>
-    <t>Médias sociaux et Internet</t>
-  </si>
-  <si>
-    <t>Ligne info</t>
-  </si>
-  <si>
-    <t>Capsules vidéos</t>
-  </si>
-  <si>
-    <t>ICI service conseil</t>
-  </si>
-  <si>
-    <t>Kiosques et séances d'info</t>
-  </si>
-  <si>
-    <t>Kiosques</t>
-  </si>
-  <si>
-    <t>Tournée des écoles</t>
-  </si>
-  <si>
-    <t>Projet Écoaction</t>
+    <t>Comptabilité</t>
+  </si>
+  <si>
+    <t>Rédaction, corr., rech. financement</t>
+  </si>
+  <si>
+    <t>Réunion d'équipe</t>
+  </si>
+  <si>
+    <t>Ressources humaines</t>
+  </si>
+  <si>
+    <t>Réseautage et veille</t>
+  </si>
+  <si>
+    <t>Site WEB</t>
+  </si>
+  <si>
+    <t>Exemple</t>
+  </si>
+  <si>
+    <t>Guillaume Gagnon</t>
   </si>
 </sst>
 </file>
@@ -447,8 +426,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE1D251-AC85-481B-84A9-38D1232BF5B0}">
-  <dimension ref="A3:D59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004BCF82-35DA-4689-997B-7EC17AEB9D05}">
+  <dimension ref="A3:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,7 +444,21 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -473,13 +466,27 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>19</v>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -487,27 +494,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>123</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -515,13 +508,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -529,13 +522,13 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -543,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>110</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -557,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>195</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -571,13 +564,13 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>76</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -585,27 +578,27 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <v>38</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -613,13 +606,13 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -627,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -641,13 +634,13 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -655,27 +648,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -683,27 +662,27 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="D25">
-        <v>8</v>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -711,27 +690,13 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" t="s">
         <v>11</v>
-      </c>
-      <c r="D27">
-        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -739,27 +704,27 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
         <v>6</v>
       </c>
-      <c r="D28">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
+      <c r="D29">
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -767,307 +732,13 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D31">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" t="s">
-        <v>21</v>
-      </c>
-      <c r="C58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" t="s">
-        <v>21</v>
-      </c>
-      <c r="C59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
